--- a/перечень228.xlsx
+++ b/перечень228.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>HCM1201X</t>
   </si>
@@ -40,6 +40,21 @@
   </si>
   <si>
     <t>https://www.chipdip.ru/product/hc0905t-208-5</t>
+  </si>
+  <si>
+    <t>HCM1203X</t>
+  </si>
+  <si>
+    <t>HCM1206X</t>
+  </si>
+  <si>
+    <t>PBD-14 (DS1023-2x7)</t>
+  </si>
+  <si>
+    <t>Гнездо на плату 2.54мм 2х7pin прямое</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product/pbd-14</t>
   </si>
 </sst>
 </file>
@@ -403,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E6"/>
+  <dimension ref="A3:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -438,11 +453,32 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/перечень228.xlsx
+++ b/перечень228.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>HCM1201X</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>https://www.chipdip.ru/product/pbd-14</t>
+  </si>
+  <si>
+    <t>Элемент питания литиевый (1шт) 3В</t>
+  </si>
+  <si>
+    <t>CR2032 (DL2032)</t>
+  </si>
+  <si>
+    <t>KLS5-CR2032-03 (CH25-2032)</t>
+  </si>
+  <si>
+    <t>Батарейный отсек</t>
   </si>
 </sst>
 </file>
@@ -418,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E11"/>
+  <dimension ref="A3:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,6 +493,22 @@
         <v>12</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1"/>

--- a/перечень228.xlsx
+++ b/перечень228.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>HCM1201X</t>
   </si>
@@ -67,6 +67,30 @@
   </si>
   <si>
     <t>Батарейный отсек</t>
+  </si>
+  <si>
+    <t>32.768 МГц 1 гармоника</t>
+  </si>
+  <si>
+    <t>кварц резонатор РТС</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product/32.768mhz-hc-49s</t>
+  </si>
+  <si>
+    <t>PBS-20R (DS-1024 -1x 20 - R)</t>
+  </si>
+  <si>
+    <t>PLS-20R (DS-1022-1x20)</t>
+  </si>
+  <si>
+    <t>Вилка штыревая 2.54мм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гнездо на плату 2.54мм </t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product/pbs20r</t>
   </si>
 </sst>
 </file>
@@ -430,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E16"/>
+  <dimension ref="A3:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,14 +533,46 @@
         <v>16</v>
       </c>
     </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1"/>
     <hyperlink ref="E3" r:id="rId2"/>
     <hyperlink ref="E6" r:id="rId3"/>
+    <hyperlink ref="E19" r:id="rId4"/>
+    <hyperlink ref="E22" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/перечень228.xlsx
+++ b/перечень228.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HCM1201X</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>https://www.chipdip.ru/product/pbs20r</t>
+  </si>
+  <si>
+    <t>CA6V, 10 кОм, Резистор подстроечный</t>
   </si>
 </sst>
 </file>
@@ -454,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E23"/>
+  <dimension ref="A3:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,6 +564,11 @@
       </c>
       <c r="B23" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/перечень228.xlsx
+++ b/перечень228.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>HCM1201X</t>
   </si>
@@ -94,6 +94,27 @@
   </si>
   <si>
     <t>CA6V, 10 кОм, Резистор подстроечный</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product/ds1066-02m-mw-2m</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product/cwf-2</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product/b2b-ph-k-s-lf-sn</t>
+  </si>
+  <si>
+    <t>разьемы питания LCD</t>
+  </si>
+  <si>
+    <t>M24C32-WMN6P</t>
+  </si>
+  <si>
+    <t>Микросхема памяти, EEPROM, I2C, 32K-bit (4K x 8), 1MГц [SOIC-8]</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product/m24c32-wmn6p</t>
   </si>
 </sst>
 </file>
@@ -457,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E25"/>
+  <dimension ref="A3:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,6 +592,40 @@
         <v>25</v>
       </c>
     </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1"/>
@@ -578,9 +633,13 @@
     <hyperlink ref="E6" r:id="rId3"/>
     <hyperlink ref="E19" r:id="rId4"/>
     <hyperlink ref="E22" r:id="rId5"/>
+    <hyperlink ref="A30" r:id="rId6"/>
+    <hyperlink ref="A31" r:id="rId7"/>
+    <hyperlink ref="A32" r:id="rId8"/>
+    <hyperlink ref="F34" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/перечень228.xlsx
+++ b/перечень228.xlsx
@@ -481,7 +481,7 @@
   <dimension ref="A3:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
